--- a/Question_Set2/Cognitive ability/Numerical Reasoning.xlsx
+++ b/Question_Set2/Cognitive ability/Numerical Reasoning.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'What is the next number in the following sequence?', 'ques_type': 2, 'options': ['124', '139', '171', '193'], 'score': '193'}, {'title': 'Fifteen people working 5 hours per day can make 30 units of a product in 10 days. Assume that all other factors remain constant, and people of the same efficiency are used to make the same products.In how many days can 10 people make 10 units of the product if each of them works 10 hours per day?', 'ques_type': 2, 'options': ['2.5 days', '7.5 days', '12 days', '26 days'], 'score': '2.5 days'}, {'title': 'The table below shows a company’s Manufacturing Cost, Overhead, Total Sales, Profit, and Dividend per Shareholder over 4 years. Assume the relationships among Manufacturing Cost, Overhead, Total Sales, Profit, and Dividend per Shareholder remain the same over the years.What should have been the Dividend per Shareholder in 2017, assuming the number of Shareholders has remained unchanged during the period 2017-2020?', 'ques_type': 2, 'options': ['$17.45', '$19.50', '$20.00', '$25.00'], 'score': '$20.00'}, {'title': 'The figure below depicts a company’s customer analysis based on gender and age group.What percentage of age-groups has more male customers than female customers?', 'ques_type': 2, 'options': ['37.5%', '40%', '50%', '62.5%'], 'score': '50%'}]</t>
+    <t>questions = [
+    {
+        "title": "What is the next number in the following sequence?",
+        "ques_type": 2,
+        "options": [
+            "124",
+            "139",
+            "171",
+            "193"
+        ],
+        "score": "193"
+    },
+    {
+        "title": "Fifteen people working 5 hours per day can make 30 units of a product in 10 days. Assume that all other factors remain constant, and people of the same efficiency are used to make the same products.In how many days can 10 people make 10 units of the product if each of them works 10 hours per day?",
+        "ques_type": 2,
+        "options": [
+            "2.5 days",
+            "7.5 days",
+            "12 days",
+            "26 days"
+        ],
+        "score": "2.5 days"
+    },
+    {
+        "title": "The table below shows a company\u2019s Manufacturing Cost, Overhead, Total Sales, Profit, and Dividend per Shareholder over 4 years. Assume the relationships among Manufacturing Cost, Overhead, Total Sales, Profit, and Dividend per Shareholder remain the same over the years.What should have been the Dividend per Shareholder in 2017, assuming the number of Shareholders has remained unchanged during the period 2017-2020?",
+        "ques_type": 2,
+        "options": [
+            "$17.45",
+            "$19.50",
+            "$20.00",
+            "$25.00"
+        ],
+        "score": "$20.00"
+    },
+    {
+        "title": "The figure below depicts a company\u2019s customer analysis based on gender and age group.What percentage of age-groups has more male customers than female customers?",
+        "ques_type": 2,
+        "options": [
+            "37.5%",
+            "40%",
+            "50%",
+            "62.5%"
+        ],
+        "score": "50%"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
